--- a/medicine/Psychotrope/Rabelo/Rabelo.xlsx
+++ b/medicine/Psychotrope/Rabelo/Rabelo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un barco rabelo ou rabelo est un type d'embarcation à fond plat, sans quille et doté d'un mât portant une voile carrée. Ces bateaux sont utilisés dès le XIIIe siècle sur le fleuve Douro au Portugal pour le transport du vin.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès le XIIIe siècle, les barcos rabelos étaient le moyen le plus rapide et le plus efficace pour transporter les fûts de vin entre la vallée du Douro où il était produit et la ville de Porto où il était commercialisé et exporté internationalement.
 En 1887, avec la création de la ligne de chemin de fer suivant la vallée du Douro et le développement des routes carrossables durant le XXe siècle, le trafic fluvial assuré par les barcos rabelos a commencé à baisser. En 1961, avec le début du programme hydroélectrique du Douro sur le plan national, il ne restait plus que six barcos rabelos en activité permanente.
@@ -545,7 +559,9 @@
           <t>Description et usage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rabelos présentent un seul mât portant une voile carrée. Leur coque à fond plat, sans quille, permet la navigation avec de faibles profondeur d'eau. D'une longueur variant de 19 mètres à 23 mètres et une largeur de 4,5 mètres, ils étaient manœuvrés par six ou sept hommes. Les barcos rabelos se laissaient entraîner par le courant la plupart du temps. Pour remonter le courant, ils se faisaient haler.
 Les embarcations naviguaient sur le fleuve Douro entre les régions viticoles en amont et les villes de production du vin de porto : Porto et Vila Nova de Gaia.
